--- a/media/reports/sont_template.xlsx
+++ b/media/reports/sont_template.xlsx
@@ -175,9 +175,6 @@
     <t>Sp_man</t>
   </si>
   <si>
-    <t xml:space="preserve">Hava Aralığı </t>
-  </si>
-  <si>
     <t>MPL</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Hesap Değerleri</t>
+  </si>
+  <si>
+    <t>Boşluk</t>
   </si>
 </sst>
 </file>
@@ -822,22 +822,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -846,21 +840,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,6 +867,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,13 +1235,13 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="11"/>
       <c r="J1" s="6" t="s">
         <v>1</v>
@@ -1249,136 +1249,136 @@
       <c r="K1" s="27"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="59"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="77" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="66"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="53" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="76"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="53" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="76"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="53" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="76"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="32"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
@@ -1388,21 +1388,21 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="57"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="64"/>
+      <c r="K9" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="78"/>
       <c r="M9" s="1"/>
       <c r="O9" s="1"/>
     </row>
@@ -1411,7 +1411,7 @@
       <c r="G10" s="2"/>
       <c r="I10" s="1"/>
       <c r="K10" s="46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L10" s="50"/>
       <c r="O10" s="2"/>
@@ -1483,7 +1483,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="21"/>
       <c r="K15" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="51"/>
       <c r="M15" s="21"/>
@@ -1498,7 +1498,7 @@
       <c r="I16" s="23"/>
       <c r="J16" s="21"/>
       <c r="K16" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" s="51"/>
       <c r="M16" s="21"/>
@@ -1512,7 +1512,7 @@
       <c r="I17" s="23"/>
       <c r="J17" s="21"/>
       <c r="K17" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17" s="51"/>
       <c r="M17" s="21"/>
@@ -1799,6 +1799,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B3:F3"/>
@@ -1815,14 +1823,6 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
